--- a/Base_Framework_ELF/src/test/resources/TestData/testData.xlsx
+++ b/Base_Framework_ELF/src/test/resources/TestData/testData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C57DC9-D377-4E5B-BE3A-F09887436994}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>yogita</t>
+    <t>standard_user</t>
   </si>
   <si>
-    <t>medbch</t>
+    <t>secret_sauce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,16 +342,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
